--- a/data/bible.xlsx
+++ b/data/bible.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20342"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31155\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NMSL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D41E0-A2E4-41AA-8BBC-2E7EEC29E06A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1165">
   <si>
     <t>raw</t>
   </si>
@@ -3543,11 +3542,15 @@
     <t>巴</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -3558,10 +3561,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3962,16 +3967,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A665" workbookViewId="0">
+      <selection activeCell="E687" sqref="E687"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
@@ -9462,7 +9467,14 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="687" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="687" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A687" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B687" s="7" t="s">
+        <v>1159</v>
+      </c>
+    </row>
     <row r="688" spans="1:2" ht="13.5" customHeight="1"/>
     <row r="689" ht="13.5" customHeight="1"/>
     <row r="690" ht="13.5" customHeight="1"/>
